--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411343.5519045453</v>
+        <v>408862.6320790853</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>254.5576699185042</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717755</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>356.6107183493423</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1531,22 +1531,22 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>88.44202534652162</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890427</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.17588796901759</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>302.170718075166</v>
+        <v>44.75640512426525</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579961</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>128.3087710562544</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>158.4112056804041</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>239.1132486668507</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>179.0379714334881</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330924</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I19" t="n">
-        <v>84.85683139908203</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654133</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>307.9637310891328</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.97432413433134</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085019</v>
+        <v>134.9383736358133</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330924</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654135</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247764</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>275.027409325835</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2804,7 +2804,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348598</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>133.1067657762836</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>239.4866237999591</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>111.8803261135839</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>170.2318734253252</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3541982182256</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>50.93075279010746</v>
@@ -3910,7 +3910,7 @@
         <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
         <v>47.07029468621589</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439278</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
         <v>188.8382781084861</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136059</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>111.7690391349167</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419014</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1401.191275526652</v>
+        <v>1142.041411855986</v>
       </c>
       <c r="C11" t="n">
-        <v>1401.191275526652</v>
+        <v>800.2709621752978</v>
       </c>
       <c r="D11" t="n">
-        <v>1070.117644179625</v>
+        <v>469.197330828271</v>
       </c>
       <c r="E11" t="n">
-        <v>711.5214588411045</v>
+        <v>469.197330828271</v>
       </c>
       <c r="F11" t="n">
-        <v>711.5214588411045</v>
+        <v>469.197330828271</v>
       </c>
       <c r="G11" t="n">
-        <v>323.6410759458241</v>
+        <v>81.31694793299116</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31694793299116</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142732</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.396592058885</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2469.820004048494</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2123.546313047138</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1760.59904833105</v>
+        <v>1501.449184660384</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237419</v>
+        <v>418.3126375609367</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555585</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029464</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802769</v>
+        <v>155.847495570084</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>155.847495570084</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>155.847495570084</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5224,25 +5224,25 @@
         <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075786</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290403</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.88595034424</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567003</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.660847567003</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1443.177814041263</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1101.407364360574</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="D14" t="n">
-        <v>770.3337330135474</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="E14" t="n">
-        <v>770.3337330135474</v>
+        <v>780.7108086188944</v>
       </c>
       <c r="F14" t="n">
-        <v>386.5398954836635</v>
+        <v>396.9169710890105</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299079</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299079</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
         <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.383130573496</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2511.806542563105</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.532851561749</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>1802.585586845661</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.4145733791418</v>
+        <v>451.9018305756481</v>
       </c>
       <c r="C16" t="n">
-        <v>568.6704577109584</v>
+        <v>310.1577149074649</v>
       </c>
       <c r="D16" t="n">
-        <v>445.7458855583463</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583463</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201595</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058533</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>2010.897289809791</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1748.986490195158</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1521.494069248995</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.268966471758</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X16" t="n">
-        <v>1058.471482833465</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>864.8709709496579</v>
+        <v>606.358228146164</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1518.904057542003</v>
       </c>
       <c r="D17" t="n">
-        <v>1235.28005914305</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>924.1335067526024</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F17" t="n">
-        <v>587.7893021707919</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G17" t="n">
-        <v>247.3585522235856</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,7 +5528,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5537,7 +5537,7 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344064</v>
@@ -5546,10 +5546,10 @@
         <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
         <v>2445.183887219626</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989062</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>389.11095782431</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341967</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>223.8015741167126</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>152.2260875423673</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542004</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809389</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104353</v>
+        <v>940.9592424104349</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8126900199877</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="F20" t="n">
-        <v>293.4684854381776</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939509</v>
@@ -5771,28 +5771,28 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344065</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936084</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219626</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166343</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
         <v>1830.862197398328</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872287</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671188</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D22" t="n">
-        <v>399.35235706258</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604111</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088493</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088442</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356249</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454045</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096714</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5996,31 +5996,31 @@
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516337</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
         <v>3066.59276179689</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714078</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902808</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290295</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.784598923574</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.250040950459</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830771</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094466</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775277</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.217995452879</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963401</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259239</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357034</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999704</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6230,22 +6230,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6257,19 +6257,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,16 +6403,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>878.8992091819714</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1329.93342243038</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910144</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1119.741581677074</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911348</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6889,19 +6889,19 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307328</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,16 +6947,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7020,7 +7020,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909359</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368723</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7123,22 +7123,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1182.105910636354</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.09285700431</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>835.3471215411929</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170189</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473322</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103806</v>
@@ -7163,7 +7163,7 @@
         <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7202,16 +7202,16 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127578</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586943</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463585</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378088</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
-        <v>423.0654108137418</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388409</v>
+        <v>903.3718743647061</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691541</v>
+        <v>682.5792952211759</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7448,7 +7448,7 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7546,16 +7546,16 @@
         <v>500.9308303909361</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368725</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>379.2208771983802</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898304</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657634</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114359</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153277</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911538</v>
+        <v>903.3718743647059</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.541131621467</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127578</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845591</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D46" t="n">
-        <v>576.5637463460668</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>934.0185561150366</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388409</v>
+        <v>706.0290052170193</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691541</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430623</v>
+        <v>157.2353108430635</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728996</v>
+        <v>184.4039433729014</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389589</v>
+        <v>191.4948909389611</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333051</v>
+        <v>181.0856325333075</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830224</v>
+        <v>179.3553748830249</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383974</v>
+        <v>182.8301554383998</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586571</v>
+        <v>190.8908035586592</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266114</v>
+        <v>192.0103836266129</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875969</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372525</v>
+        <v>113.6031223372537</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672263</v>
+        <v>105.9629718672279</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125358</v>
+        <v>104.1013981253599</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677524</v>
+        <v>92.3024655867772</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359724</v>
+        <v>106.8829608359742</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798314</v>
+        <v>105.3113487798329</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615451</v>
+        <v>120.8212784615461</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564652</v>
+        <v>116.1755252564661</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085221</v>
+        <v>119.1996074085231</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140771</v>
+        <v>108.4284123140781</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530919</v>
+        <v>120.6694600530928</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662699</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784342</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0980055054511</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>336.8335818149105</v>
       </c>
       <c r="N26" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.8321087236469</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374198</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>122.171886755323</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.12994788168977</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.707073719584798</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.39284298067268</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.4886187959507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>81.83086099116116</v>
+        <v>339.2451739420617</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292099</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>64.32003163278847</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.25330108456426</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41.67450974811322</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>41.67450974811337</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.07135577740996268</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>333.0521183134031</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1097778.50601947</v>
+        <v>1097778.506019471</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.3243738532</v>
+        <v>906495.3243738533</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>986109.0792922662</v>
+        <v>986109.0792922663</v>
       </c>
     </row>
     <row r="9">
@@ -26317,13 +26317,13 @@
         <v>430120.0778264451</v>
       </c>
       <c r="D2" t="n">
-        <v>430131.8016481221</v>
+        <v>430131.8016481217</v>
       </c>
       <c r="E2" t="n">
-        <v>383008.500475112</v>
+        <v>383008.5004751119</v>
       </c>
       <c r="F2" t="n">
-        <v>383008.500475112</v>
+        <v>383008.5004751119</v>
       </c>
       <c r="G2" t="n">
         <v>417128.6811544315</v>
@@ -26332,25 +26332,25 @@
         <v>417128.6811544315</v>
       </c>
       <c r="I2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.929178749</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="K2" t="n">
         <v>431046.9291787489</v>
       </c>
       <c r="L2" t="n">
+        <v>431046.9291787489</v>
+      </c>
+      <c r="M2" t="n">
         <v>431046.9291787485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>431046.9291787484</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787485</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787483</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787485</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552483</v>
+        <v>59764.55367552184</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983323</v>
+        <v>22821.4678298336</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487412</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434255</v>
+        <v>435086.1724434266</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866204</v>
+        <v>40634.1059086621</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866198</v>
+        <v>40634.1059086621</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010426</v>
+        <v>77662.2662701043</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010421</v>
+        <v>77662.2662701043</v>
       </c>
       <c r="I4" t="n">
         <v>91903.68494905921</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462827</v>
+        <v>91012.35309462826</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462827</v>
+        <v>91012.35309462826</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462826</v>
+        <v>91012.3530946282</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.842883194</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.842883194</v>
       </c>
       <c r="O4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="P4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.842883194</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186633</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26485,7 +26485,7 @@
         <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521492</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26497,19 +26497,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61282.88299909236</v>
+        <v>-61287.29657696048</v>
       </c>
       <c r="C6" t="n">
-        <v>-61282.88299909236</v>
+        <v>-61287.29657696048</v>
       </c>
       <c r="D6" t="n">
-        <v>-99867.82990269468</v>
+        <v>-99872.18765283897</v>
       </c>
       <c r="E6" t="n">
-        <v>-823434.0679620069</v>
+        <v>-823662.8223844079</v>
       </c>
       <c r="F6" t="n">
-        <v>265804.9042016239</v>
+        <v>265576.1497792251</v>
       </c>
       <c r="G6" t="n">
-        <v>221367.6624642382</v>
+        <v>221301.3850926939</v>
       </c>
       <c r="H6" t="n">
-        <v>258947.771759112</v>
+        <v>258881.4943875679</v>
       </c>
       <c r="I6" t="n">
-        <v>230585.2480980142</v>
+        <v>230585.2480980139</v>
       </c>
       <c r="J6" t="n">
-        <v>225247.2013875176</v>
+        <v>225247.2013875173</v>
       </c>
       <c r="K6" t="n">
         <v>250656.6344093145</v>
       </c>
       <c r="L6" t="n">
-        <v>213076.52511444</v>
+        <v>213076.5251144405</v>
       </c>
       <c r="M6" t="n">
-        <v>53566.38899658031</v>
+        <v>53566.38899658043</v>
       </c>
       <c r="N6" t="n">
+        <v>255734.4889893048</v>
+      </c>
+      <c r="O6" t="n">
         <v>255734.4889893045</v>
       </c>
-      <c r="O6" t="n">
-        <v>255734.4889893048</v>
-      </c>
       <c r="P6" t="n">
-        <v>255734.4889893045</v>
+        <v>255734.4889893047</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859255</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790881</v>
+        <v>69.78465283790531</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.720884083919892e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951237</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790881</v>
+        <v>69.78465283790531</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873682</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780169</v>
+        <v>132.2465643780178</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672089</v>
+        <v>84.22861846672114</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987486</v>
+        <v>90.83829126987533</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519053</v>
+        <v>84.46220888519098</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989831</v>
+        <v>7.649035050990564</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317015</v>
+        <v>75.62456067317068</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49558901075606</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075568</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>11.49558901075596</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29457,7 +29457,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L28" t="n">
         <v>46.97513661859255</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859153</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565373</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30195,22 +30195,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>46.72521440565373</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>54.1454821454443</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371195</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.47778196371169</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>97.68472022810489</v>
@@ -30630,7 +30630,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
         <v>97.68472022810489</v>
@@ -30663,19 +30663,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565455</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
         <v>97.68472022810489</v>
@@ -30684,7 +30684,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>55.47778196371118</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413417</v>
+        <v>0.2805413179413277</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366767</v>
+        <v>2.873093772366623</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993359</v>
+        <v>10.81556915993305</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362397</v>
+        <v>23.81059368362278</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208098</v>
+        <v>35.68590767207919</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102832</v>
+        <v>44.2715240310261</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396766</v>
+        <v>49.26060069396519</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135685</v>
+        <v>50.05768871356599</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328928</v>
+        <v>47.26805598328691</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966124</v>
+        <v>40.34219219661038</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783809</v>
+        <v>30.29530624783657</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313282</v>
+        <v>17.62255356313194</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588331</v>
+        <v>6.392835282588011</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288224</v>
+        <v>1.228069619288163</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530734</v>
+        <v>0.02244330543530621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796529</v>
+        <v>0.1501028381796454</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840332</v>
+        <v>1.44967741084026</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694191</v>
+        <v>5.168014384693932</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906975</v>
+        <v>14.18142647906904</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371065</v>
+        <v>24.23831663710529</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264789</v>
+        <v>32.59140791264625</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666029</v>
+        <v>38.03263579665839</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655806</v>
+        <v>39.03924649655611</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847207</v>
+        <v>35.71328360847028</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449881</v>
+        <v>28.66305863449738</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244764</v>
+        <v>19.16049562447544</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768278</v>
+        <v>9.319542882767811</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608902</v>
+        <v>2.788094384608762</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890393</v>
+        <v>0.605019773189009</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345591</v>
+        <v>0.009875186722345096</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248688</v>
+        <v>0.1258411772486817</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811063</v>
+        <v>1.118842466811007</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078727</v>
+        <v>3.784387403078538</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482242</v>
+        <v>8.896971231481796</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489302</v>
+        <v>14.62045677489229</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477313</v>
+        <v>18.70915102477219</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908297</v>
+        <v>19.72617653908198</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115606</v>
+        <v>19.25713215115509</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875092</v>
+        <v>17.78707839875003</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287768</v>
+        <v>15.21991838287691</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852423</v>
+        <v>10.5374825785237</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381916</v>
+        <v>5.658276933381632</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233953</v>
+        <v>2.193068516233843</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625758</v>
+        <v>0.537685030062549</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564808</v>
+        <v>0.006864064213564464</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35568,7 +35568,7 @@
         <v>72.49856320019269</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573246</v>
@@ -35580,7 +35580,7 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019258</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086609</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1510063936702</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>875.7546976451373</v>
       </c>
       <c r="N26" t="n">
-        <v>858.9893307218366</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36753,7 +36753,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>615.0233952790473</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>521.1072324560741</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>630.2248876435424</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120754</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
